--- a/auto-remote-win-form/AutoSeleniumFromExcel/bin/Debug/Config_Artis.xlsx
+++ b/auto-remote-win-form/AutoSeleniumFromExcel/bin/Debug/Config_Artis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17110" windowHeight="6740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17110" windowHeight="6740" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DataRun" sheetId="3" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>Sleep</t>
   </si>
   <si>
-    <t>https://accounts.spotify.com/vi-VN/login?continue=https:%2F%2Fopen.spotify.com%2F</t>
-  </si>
-  <si>
     <t>login-button</t>
   </si>
   <si>
@@ -173,6 +170,9 @@
   </si>
   <si>
     <t>Maihuudanh138</t>
+  </si>
+  <si>
+    <t>https://accounts.spotify.com/</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -575,87 +575,87 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -675,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -690,23 +690,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -714,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -727,10 +727,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -754,7 +754,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -770,7 +770,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -786,7 +786,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -794,7 +794,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -802,7 +802,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -855,31 +855,31 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
         <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -891,7 +891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
@@ -902,57 +902,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1020,27 +1020,27 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/auto-remote-win-form/AutoSeleniumFromExcel/bin/Debug/Config_Artis.xlsx
+++ b/auto-remote-win-form/AutoSeleniumFromExcel/bin/Debug/Config_Artis.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
   <si>
     <t>GoToPage</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>https://accounts.spotify.com/</t>
+  </si>
+  <si>
+    <t>//span[text()='Incorrect username or password.']</t>
   </si>
 </sst>
 </file>
@@ -673,10 +676,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -735,73 +738,81 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1000</v>
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>32</v>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1000</v>
+        <v>3</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -809,7 +820,7 @@
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2" display="login-username|woehljay052@gmail.com"/>
-    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -819,7 +830,7 @@
           <x14:formula1>
             <xm:f>Table!$A$2:$A$14</xm:f>
           </x14:formula1>
-          <xm:sqref>A1 A3:A8 A10:A12 A14:A213</xm:sqref>
+          <xm:sqref>A1 A3:A9 A11:A13 A15:A214</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -831,7 +842,7 @@
           <x14:formula1>
             <xm:f>Table!$A$2:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>A9 A13</xm:sqref>
+          <xm:sqref>A10 A14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
